--- a/java/parent/parent-apps.xlsx
+++ b/java/parent/parent-apps.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/java/parent/parent-apps.xlsx
+++ b/java/parent/parent-apps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="5700" windowWidth="28060" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="2420" windowWidth="28060" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>springbootapp-loosecoupling</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>DailyCodeBuffer</t>
+  </si>
+  <si>
+    <t>springboot-loosecoupling</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -393,13 +393,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/java/parent/parent-apps.xlsx
+++ b/java/parent/parent-apps.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
